--- a/data/aei.xlsx
+++ b/data/aei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f73cd49b1817ad/Documentos/GitHub/PEI_GL_generador/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_496D7A8F835C6C4F6B4304B75B245E3FB48F8F96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F1B4E2C-2D05-4E24-A8C2-181B17F177B0}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_496D7A8F835C6C4F6B4304B75B245E3FB48F8F96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1B9A5FE-1EC0-4053-889F-5C039E9ED20A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,12 +91,6 @@
     <t>Construcción; equipamiento y mantenimiento de los establecimientos de salud adecuados en beneficio de la salud de la población local</t>
   </si>
   <si>
-    <t>Porcentaje de establecimientos médicos bajo responsabilidad municipal en condiciones operativas y de infraestructura adecuadas</t>
-  </si>
-  <si>
-    <t>Porcentaje de inversiones en infraestructura culminadas para la mejora/construcción de establecimientos de salud bajo administración municipal</t>
-  </si>
-  <si>
     <t>AEI.02.02</t>
   </si>
   <si>
@@ -163,12 +157,6 @@
     <t>Gestión de los residuos sólidos de manera integral en beneficio de la población local</t>
   </si>
   <si>
-    <t>Promedio de días por semana del servicio de recojo de residuos sólidos</t>
-  </si>
-  <si>
-    <t>Porcentaje de toneladas de residuos sólidos no reutilizables dispuestos adecuadamente en infraestructuras de residuos sólidos</t>
-  </si>
-  <si>
     <t>AEI.04.03</t>
   </si>
   <si>
@@ -394,15 +382,6 @@
     <t>Servicio de alcantarillado sanitario y tratamiento de aguas residuales eficiente para la población local</t>
   </si>
   <si>
-    <t>Porcentaje de estaciones de bombeo en condiciones operativas adecuadas</t>
-  </si>
-  <si>
-    <t>Número de mantenimientos realizados a las conexiones domiciliarias de alcantarillado</t>
-  </si>
-  <si>
-    <t>Número de conexiones nuevas de alcantarillado instaladas en la localidad</t>
-  </si>
-  <si>
     <t>OEI.09</t>
   </si>
   <si>
@@ -457,15 +436,6 @@
     <t>Construcción, equipamiento y mantenimiento de infraestructura productiva adecuada y disponible para los productores agropecuarios y pequeños empresarios locales</t>
   </si>
   <si>
-    <t>Número de infraestructuras productivas construidas para productores agropecuarios y pequeños empresarios.</t>
-  </si>
-  <si>
-    <t>Número de equipos para las infraestructuras productivas efectivamente entregadas</t>
-  </si>
-  <si>
-    <t>Número de servicios de mantenimientos realizados a la infraestructura productiva efectivamente realizados</t>
-  </si>
-  <si>
     <t>OEI.10</t>
   </si>
   <si>
@@ -560,6 +530,36 @@
   </si>
   <si>
     <t>Porcentaje de servicios administrativos municipales digitalizados</t>
+  </si>
+  <si>
+    <t>Ind.01. Porcentaje de establecimientos médicos bajo responsabilidad municipal en condiciones operativas y de infraestructura adecuadas</t>
+  </si>
+  <si>
+    <t>Ind.02. Porcentaje de inversiones en infraestructura culminadas para la mejora/construcción de establecimientos de salud bajo administración municipal</t>
+  </si>
+  <si>
+    <t>Ind.01. Porcentaje de estaciones de bombeo en condiciones operativas adecuadas</t>
+  </si>
+  <si>
+    <t>Ind.02. Número de mantenimientos realizados a las conexiones domiciliarias de alcantarillado</t>
+  </si>
+  <si>
+    <t>Ind.03. Número de conexiones nuevas de alcantarillado instaladas en la localidad</t>
+  </si>
+  <si>
+    <t>Ind.01. Número de infraestructuras productivas construidas para productores agropecuarios y pequeños empresarios.</t>
+  </si>
+  <si>
+    <t>Ind.02. Número de equipos para las infraestructuras productivas efectivamente entregadas</t>
+  </si>
+  <si>
+    <t>Ind.03. Número de servicios de mantenimientos realizados a la infraestructura productiva efectivamente realizados</t>
+  </si>
+  <si>
+    <t>Ind.01. Promedio de días por semana del servicio de recojo de residuos sólidos</t>
+  </si>
+  <si>
+    <t>Ind.02. Porcentaje de toneladas de residuos sólidos no reutilizables dispuestos adecuadamente en infraestructuras de residuos sólidos</t>
   </si>
 </sst>
 </file>
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1033,7 +1033,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1047,7 +1047,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1055,13 +1055,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1069,713 +1069,713 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
         <v>89</v>
       </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
         <v>115</v>
       </c>
-      <c r="B39" t="s">
-        <v>119</v>
-      </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
         <v>127</v>
       </c>
-      <c r="B45" t="s">
-        <v>134</v>
-      </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
         <v>148</v>
       </c>
-      <c r="B54" t="s">
-        <v>158</v>
-      </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" t="s">
         <v>161</v>
       </c>
-      <c r="B58" t="s">
-        <v>171</v>
-      </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D58" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/aei.xlsx
+++ b/data/aei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f73cd49b1817ad/Documentos/GitHub/PEI_GL_generador/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_496D7A8F835C6C4F6B4304B75B245E3FB48F8F96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1B9A5FE-1EC0-4053-889F-5C039E9ED20A}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_496D7A8F835C6C4F6B4304B75B245E3FB48F8F96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C7AEC68-D65A-48B4-AD85-90ED3565CDDC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,9 +274,6 @@
     <t>Infraestructura para la prevención y mitigación de riesgos de desastres adecuada en la localidad.</t>
   </si>
   <si>
-    <t>% de PIPs de GRD del banco de proyectos de la municipalidad</t>
-  </si>
-  <si>
     <t>OEI.06</t>
   </si>
   <si>
@@ -560,6 +557,9 @@
   </si>
   <si>
     <t>Ind.02. Porcentaje de toneladas de residuos sólidos no reutilizables dispuestos adecuadamente en infraestructuras de residuos sólidos</t>
+  </si>
+  <si>
+    <t>Porcentaje de PIPs de GRD del banco de proyectos de la municipalidad</t>
   </si>
 </sst>
 </file>
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:B50"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1033,7 +1033,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1047,7 +1047,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1145,7 +1145,7 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1159,7 +1159,7 @@
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1341,441 +1341,441 @@
         <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>87</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>90</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>93</v>
-      </c>
-      <c r="D32" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
         <v>95</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>96</v>
-      </c>
-      <c r="D33" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
         <v>98</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>99</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>102</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
         <v>105</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>106</v>
-      </c>
-      <c r="D36" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
         <v>108</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>109</v>
-      </c>
-      <c r="D37" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>112</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>113</v>
-      </c>
-      <c r="D38" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
         <v>115</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>116</v>
-      </c>
-      <c r="D39" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
         <v>118</v>
       </c>
-      <c r="C40" t="s">
-        <v>119</v>
-      </c>
       <c r="D40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
         <v>118</v>
       </c>
-      <c r="C41" t="s">
-        <v>119</v>
-      </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
         <v>118</v>
       </c>
-      <c r="C42" t="s">
-        <v>119</v>
-      </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
         <v>120</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>121</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>122</v>
-      </c>
-      <c r="D43" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" t="s">
         <v>124</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>125</v>
-      </c>
-      <c r="D44" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
         <v>127</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>128</v>
-      </c>
-      <c r="D45" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
         <v>130</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>131</v>
-      </c>
-      <c r="D46" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
         <v>133</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>134</v>
-      </c>
-      <c r="D47" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
         <v>136</v>
       </c>
-      <c r="C48" t="s">
-        <v>137</v>
-      </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" t="s">
         <v>136</v>
       </c>
-      <c r="C49" t="s">
-        <v>137</v>
-      </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" t="s">
         <v>136</v>
       </c>
-      <c r="C50" t="s">
-        <v>137</v>
-      </c>
       <c r="D50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s">
         <v>138</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>139</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>140</v>
-      </c>
-      <c r="D51" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
         <v>142</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>143</v>
-      </c>
-      <c r="D52" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s">
         <v>145</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>146</v>
-      </c>
-      <c r="D53" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" t="s">
         <v>148</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>149</v>
-      </c>
-      <c r="D54" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" t="s">
         <v>151</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>152</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>153</v>
-      </c>
-      <c r="D55" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
         <v>155</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>156</v>
-      </c>
-      <c r="D56" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" t="s">
         <v>158</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>159</v>
-      </c>
-      <c r="D57" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
         <v>161</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>162</v>
-      </c>
-      <c r="D58" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
         <v>164</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>165</v>
-      </c>
-      <c r="D59" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" t="s">
         <v>167</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>168</v>
-      </c>
-      <c r="D60" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/aei.xlsx
+++ b/data/aei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f73cd49b1817ad/Documentos/GitHub/PEI_GL_generador/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_496D7A8F835C6C4F6B4304B75B245E3FB48F8F96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C7AEC68-D65A-48B4-AD85-90ED3565CDDC}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_496D7A8F835C6C4F6B4304B75B245E3FB48F8F96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F084331F-1CF7-4473-A3E9-3B8D38F50747}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="174">
   <si>
     <t>Código OEI</t>
   </si>
@@ -529,37 +529,19 @@
     <t>Porcentaje de servicios administrativos municipales digitalizados</t>
   </si>
   <si>
-    <t>Ind.01. Porcentaje de establecimientos médicos bajo responsabilidad municipal en condiciones operativas y de infraestructura adecuadas</t>
-  </si>
-  <si>
-    <t>Ind.02. Porcentaje de inversiones en infraestructura culminadas para la mejora/construcción de establecimientos de salud bajo administración municipal</t>
-  </si>
-  <si>
-    <t>Ind.01. Porcentaje de estaciones de bombeo en condiciones operativas adecuadas</t>
-  </si>
-  <si>
-    <t>Ind.02. Número de mantenimientos realizados a las conexiones domiciliarias de alcantarillado</t>
-  </si>
-  <si>
-    <t>Ind.03. Número de conexiones nuevas de alcantarillado instaladas en la localidad</t>
-  </si>
-  <si>
-    <t>Ind.01. Número de infraestructuras productivas construidas para productores agropecuarios y pequeños empresarios.</t>
-  </si>
-  <si>
-    <t>Ind.02. Número de equipos para las infraestructuras productivas efectivamente entregadas</t>
-  </si>
-  <si>
-    <t>Ind.03. Número de servicios de mantenimientos realizados a la infraestructura productiva efectivamente realizados</t>
-  </si>
-  <si>
-    <t>Ind.01. Promedio de días por semana del servicio de recojo de residuos sólidos</t>
-  </si>
-  <si>
-    <t>Ind.02. Porcentaje de toneladas de residuos sólidos no reutilizables dispuestos adecuadamente en infraestructuras de residuos sólidos</t>
-  </si>
-  <si>
     <t>Porcentaje de PIPs de GRD del banco de proyectos de la municipalidad</t>
+  </si>
+  <si>
+    <t>Ind.01. Porcentaje de establecimientos médicos bajo responsabilidad municipal en condiciones operativas y de infraestructura adecuadas / Ind.02. Porcentaje de inversiones en infraestructura culminadas para la mejora/construcción de establecimientos de salud bajo administración municipal</t>
+  </si>
+  <si>
+    <t>Ind.01. Promedio de días por semana del servicio de recojo de residuos sólidos / Ind.02. Porcentaje de toneladas de residuos sólidos no reutilizables dispuestos adecuadamente en infraestructuras de residuos sólidos</t>
+  </si>
+  <si>
+    <t>Ind.01. Porcentaje de estaciones de bombeo en condiciones operativas adecuadas / Ind.02. Número de mantenimientos realizados a las conexiones domiciliarias de alcantarillado / Ind.03. Número de conexiones nuevas de alcantarillado instaladas en la localidad</t>
+  </si>
+  <si>
+    <t>Ind.01. Número de infraestructuras productivas construidas para productores agropecuarios y pequeños empresarios. / Ind.02. Número de equipos para las infraestructuras productivas efectivamente entregadas / Ind.03. Número de servicios de mantenimientos realizados a la infraestructura productiva efectivamente realizados</t>
   </si>
 </sst>
 </file>
@@ -927,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A45" sqref="A45:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1033,7 +1015,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1041,13 +1023,13 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1055,27 +1037,27 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1083,13 +1065,13 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1097,27 +1079,27 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1125,13 +1107,13 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1139,13 +1121,13 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1153,13 +1135,13 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1167,13 +1149,13 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1181,13 +1163,13 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1195,41 +1177,41 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1237,13 +1219,13 @@
         <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1251,13 +1233,13 @@
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1265,13 +1247,13 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1279,13 +1261,13 @@
         <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1293,13 +1275,13 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1307,41 +1289,41 @@
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1349,13 +1331,13 @@
         <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1363,13 +1345,13 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1377,41 +1359,41 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1419,41 +1401,41 @@
         <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1461,69 +1443,69 @@
         <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1531,13 +1513,13 @@
         <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1545,242 +1527,158 @@
         <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" t="s">
-        <v>151</v>
-      </c>
-      <c r="C55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>150</v>
-      </c>
-      <c r="B56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" t="s">
-        <v>155</v>
-      </c>
-      <c r="D56" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" t="s">
-        <v>158</v>
-      </c>
-      <c r="D57" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>150</v>
-      </c>
-      <c r="B58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D60" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D1892">
-    <sortCondition ref="A2:A1892"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D1886">
+    <sortCondition ref="A2:A1886"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/aei.xlsx
+++ b/data/aei.xlsx
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD46"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
